--- a/Income/BXP_inc.xlsx
+++ b/Income/BXP_inc.xlsx
@@ -1911,16 +1911,16 @@
         <v>0.3638</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.4687</v>
+        <v>0.4093</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.4686</v>
+        <v>0.4102</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.4244</v>
+        <v>0.3675</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.2776</v>
+        <v>0.2202</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.2274</v>
@@ -2038,16 +2038,16 @@
         <v>0.3066</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.407</v>
+        <v>0.3476</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.4061</v>
+        <v>0.3477</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.3613</v>
+        <v>0.3044</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.23</v>
+        <v>0.1726</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.1784</v>
